--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -519,7 +519,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -597,6 +597,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -604,14 +607,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="12">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -685,23 +689,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -723,9 +710,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="13"/>
-    <tableColumn id="2" name="Link" dataDxfId="12" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="11"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1000,24 +987,24 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.6328125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="36.6328125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1025,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="5" t="s">
@@ -1061,7 +1048,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2007</v>
       </c>
@@ -1089,7 +1076,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -1109,7 +1096,7 @@
       <c r="G4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="30">
         <v>1</v>
       </c>
       <c r="I4" s="10" t="str">
@@ -1117,7 +1104,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2008</v>
       </c>
@@ -1147,7 +1134,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2009</v>
       </c>
@@ -1175,7 +1162,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2010</v>
       </c>
@@ -1203,7 +1190,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2011</v>
       </c>
@@ -1223,7 +1210,7 @@
       <c r="G8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="30">
         <v>1</v>
       </c>
       <c r="I8" s="10" t="str">
@@ -1232,7 +1219,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -1252,7 +1239,7 @@
       <c r="G9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="30">
         <v>1</v>
       </c>
       <c r="I9" s="10" t="str">
@@ -1261,7 +1248,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2012</v>
       </c>
@@ -1281,7 +1268,7 @@
       <c r="G10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="30">
         <v>1</v>
       </c>
       <c r="I10" s="10" t="str">
@@ -1289,7 +1276,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2013</v>
       </c>
@@ -1317,7 +1304,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2013</v>
       </c>
@@ -1345,7 +1332,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2014</v>
       </c>
@@ -1374,7 +1361,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1402,7 +1389,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
@@ -1432,7 +1419,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1460,7 +1447,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1488,7 +1475,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2015</v>
       </c>
@@ -1518,7 +1505,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2015</v>
       </c>
@@ -1546,7 +1533,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2015</v>
       </c>
@@ -1576,7 +1563,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2016</v>
       </c>
@@ -1596,7 +1583,7 @@
       <c r="G21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="30">
         <v>1</v>
       </c>
       <c r="I21" s="10" t="str">
@@ -1604,7 +1591,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2016</v>
       </c>
@@ -1625,14 +1612,14 @@
         <v>33</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2017</v>
       </c>
@@ -1653,14 +1640,14 @@
         <v>33</v>
       </c>
       <c r="H23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2017</v>
       </c>
@@ -1690,7 +1677,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2017</v>
       </c>
@@ -1718,7 +1705,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2018</v>
       </c>
@@ -1746,7 +1733,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2018</v>
       </c>
@@ -1776,7 +1763,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2018</v>
       </c>
@@ -1804,7 +1791,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2019</v>
       </c>
@@ -1832,7 +1819,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2019</v>
       </c>
@@ -1867,11 +1854,11 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H6 H8 H10 H12 H14 H17 H21 H23 H26">
-    <cfRule type="containsText" dxfId="10" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H3 H8 H10 H12 H14 H17 H21 H23 H26">
+  <conditionalFormatting sqref="H3 H6 H8 H10 H12 H14 H17 H21 H23 H26">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1884,11 +1871,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
-    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
+  <conditionalFormatting sqref="H7 H4 H9 H11 H13 H16 H19 H22 H25 H28 H30">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1901,7 +1888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1918,7 +1905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1935,7 +1922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1952,7 +1939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1969,12 +1956,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2003,7 +1990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2033,14 +2020,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -2051,7 +2038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2062,7 +2049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2073,7 +2060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2084,7 +2071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2095,7 +2082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2106,7 +2093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -519,10 +519,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,6 +582,9 @@
     <xf numFmtId="3" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,9 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -608,15 +607,6 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -689,6 +679,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -710,9 +709,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="11"/>
+    <tableColumn id="2" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -981,30 +980,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="36.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1017,832 +1016,829 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="29"/>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>2007</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="10" t="str">
+      <c r="I3" s="9" t="str">
         <f t="shared" ref="I3" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>2008</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="24">
         <v>1</v>
       </c>
-      <c r="I4" s="10" t="str">
+      <c r="I4" s="9" t="str">
         <f t="shared" ref="I4:I6" si="1">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>2008</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="10" t="str">
+      <c r="I5" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>2009</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>2010</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="20" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="9" t="str">
         <f t="shared" ref="I7:I30" si="2">IF(OR(AND(H7&gt;1,H7&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>2011</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="20" t="s">
+      <c r="C8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="24">
         <v>1</v>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>2012</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="24">
         <v>1</v>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="I9" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>2012</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="20" t="s">
+      <c r="C10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="24">
         <v>1</v>
       </c>
-      <c r="I10" s="10" t="str">
+      <c r="I10" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>2013</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="20" t="s">
+      <c r="C11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0</v>
       </c>
-      <c r="I11" s="10" t="str">
+      <c r="I11" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>2013</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="20" t="s">
+      <c r="C12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>0</v>
       </c>
-      <c r="I12" s="10" t="str">
+      <c r="I12" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>2014</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="20" t="s">
+      <c r="C13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>0</v>
       </c>
-      <c r="I13" s="10" t="str">
+      <c r="I13" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>2014</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="20" t="s">
+      <c r="C14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>0</v>
       </c>
-      <c r="I14" s="10" t="str">
+      <c r="I14" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>2014</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="C15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="10" t="str">
+      <c r="I15" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>2015</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="20" t="s">
+      <c r="C16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>0</v>
       </c>
-      <c r="I16" s="10" t="str">
+      <c r="I16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>2015</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="20" t="s">
+      <c r="C17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>0</v>
       </c>
-      <c r="I17" s="10" t="str">
+      <c r="I17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
         <v>2015</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="C18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="10" t="str">
+      <c r="I18" s="9" t="str">
         <f t="shared" ref="I18" si="3">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>2015</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="20" t="s">
+      <c r="C19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>0</v>
       </c>
-      <c r="I19" s="10" t="str">
+      <c r="I19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
         <v>2015</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="C20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="10" t="str">
+      <c r="I20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>2016</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="20" t="s">
+      <c r="C21" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="24">
         <v>1</v>
       </c>
-      <c r="I21" s="10" t="str">
+      <c r="I21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
         <v>2016</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="20" t="s">
+      <c r="C22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>1</v>
       </c>
-      <c r="I22" s="10" t="str">
+      <c r="I22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>2017</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="20" t="s">
+      <c r="C23" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>1</v>
       </c>
-      <c r="I23" s="10" t="str">
+      <c r="I23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
         <v>2017</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="C24" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="10" t="str">
+      <c r="I24" s="9" t="str">
         <f t="shared" ref="I24" si="4">IF(OR(AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
         <v>2017</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="20" t="s">
+      <c r="C25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>0</v>
       </c>
-      <c r="I25" s="10" t="str">
+      <c r="I25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
         <v>2018</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="20" t="s">
+      <c r="C26" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>1</v>
       </c>
-      <c r="I26" s="10" t="str">
+      <c r="I26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
         <v>2018</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="C27" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="10" t="str">
+      <c r="I27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
         <v>2018</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="20" t="s">
+      <c r="C28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>1</v>
       </c>
-      <c r="I28" s="10" t="str">
+      <c r="I28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
         <v>2019</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="24" t="s">
+      <c r="C29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="10" t="str">
+      <c r="I29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
         <v>2019</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="20" t="s">
+      <c r="C30" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>1</v>
       </c>
-      <c r="I30" s="10" t="str">
+      <c r="I30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1854,7 +1850,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H6 H8 H10 H12 H14 H17 H21 H23 H26">
-    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1871,11 +1867,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H4 H9 H11 H13 H16 H19 H22 H25 H28 H30">
+  <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1888,7 +1884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1905,7 +1901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1922,7 +1918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1939,7 +1935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1956,12 +1952,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1990,7 +1986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2020,87 +2016,87 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -608,6 +608,15 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -679,15 +688,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -709,9 +709,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="11"/>
-    <tableColumn id="2" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -986,24 +986,24 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2008</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2009</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2010</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2011</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2012</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2012</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2013</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2013</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2014</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
@@ -1378,14 +1378,14 @@
         <v>35</v>
       </c>
       <c r="H14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2014</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2015</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2015</v>
       </c>
@@ -1464,14 +1464,14 @@
         <v>37</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2015</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2015</v>
       </c>
@@ -1522,14 +1522,14 @@
         <v>37</v>
       </c>
       <c r="H19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2015</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2016</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2016</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2017</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2017</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2017</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2018</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2018</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2019</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2019</v>
       </c>
@@ -1850,11 +1850,11 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H6 H8 H10 H12 H14 H17 H21 H23 H26">
-    <cfRule type="containsText" dxfId="8" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H6 H8 H10 H12 H14 H17 H21 H23 H26">
+  <conditionalFormatting sqref="H6 H3 H8 H10 H12 H14 H17 H21 H23 H26">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1867,11 +1867,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
-    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
+  <conditionalFormatting sqref="H7 H4 H9 H11 H13 H16 H19 H22 H25 H28 H30">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1884,7 +1884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1901,7 +1901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1918,7 +1918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1935,7 +1935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1952,12 +1952,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1986,7 +1986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2016,14 +2016,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
   <si>
     <t>Year</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>10.000</t>
+  </si>
+  <si>
+    <t>Charles de Gaulle</t>
+  </si>
+  <si>
+    <t>2024 Summer Olympics in Paris</t>
   </si>
 </sst>
 </file>
@@ -606,7 +612,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -615,6 +629,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -709,9 +731,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -980,30 +1002,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1046,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
@@ -1047,7 +1069,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
@@ -1075,7 +1097,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
@@ -1103,7 +1125,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2008</v>
       </c>
@@ -1133,7 +1155,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2009</v>
       </c>
@@ -1161,7 +1183,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2010</v>
       </c>
@@ -1189,7 +1211,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2011</v>
       </c>
@@ -1217,7 +1239,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2012</v>
       </c>
@@ -1245,7 +1267,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2012</v>
       </c>
@@ -1273,7 +1295,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2013</v>
       </c>
@@ -1301,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2013</v>
       </c>
@@ -1329,7 +1351,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2014</v>
       </c>
@@ -1357,7 +1379,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
@@ -1385,7 +1407,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2014</v>
       </c>
@@ -1415,7 +1437,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2015</v>
       </c>
@@ -1443,7 +1465,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2015</v>
       </c>
@@ -1471,7 +1493,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2015</v>
       </c>
@@ -1501,7 +1523,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2015</v>
       </c>
@@ -1529,7 +1551,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2015</v>
       </c>
@@ -1559,7 +1581,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2016</v>
       </c>
@@ -1587,7 +1609,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2016</v>
       </c>
@@ -1615,7 +1637,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2017</v>
       </c>
@@ -1643,7 +1665,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2017</v>
       </c>
@@ -1673,7 +1695,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2017</v>
       </c>
@@ -1701,7 +1723,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
@@ -1729,7 +1751,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2018</v>
       </c>
@@ -1759,7 +1781,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2018</v>
       </c>
@@ -1787,7 +1809,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2019</v>
       </c>
@@ -1815,7 +1837,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2019</v>
       </c>
@@ -1840,6 +1862,50 @@
       </c>
       <c r="I30" s="9" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="str">
+        <f t="shared" ref="I31" si="5">IF(OR(AND(H31&gt;1,H31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9" t="str">
+        <f t="shared" ref="I32" si="6">IF(OR(AND(H32&gt;1,H32&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1850,12 +1916,12 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H6 H8 H10 H12 H14 H17 H21 H23 H26">
-    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6 H3 H8 H10 H12 H14 H17 H21 H23 H26">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1867,12 +1933,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H4 H9 H11 H13 H16 H19 H22 H25 H28 H30">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1884,11 +1950,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1900,29 +2000,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1934,12 +2017,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1951,17 +2051,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1973,7 +2068,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1985,12 +2085,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2016,14 +2116,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +2134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2045,7 +2145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2056,7 +2156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2067,7 +2167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2078,7 +2178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2089,7 +2189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -614,14 +614,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -629,6 +621,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -731,9 +731,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1008,24 +1008,24 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2008</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2009</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2010</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2011</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2012</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2012</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2013</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2013</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2014</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2014</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2015</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2015</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2015</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2015</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2015</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2016</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2016</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2017</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2017</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2017</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2018</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2018</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2019</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2019</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2020</v>
       </c>
@@ -1880,14 +1880,14 @@
       <c r="F31" s="7"/>
       <c r="G31" s="19"/>
       <c r="H31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="9" t="str">
         <f t="shared" ref="I31" si="5">IF(OR(AND(H31&gt;1,H31&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2020</v>
       </c>
@@ -1920,7 +1920,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H3 H8 H10 H12 H14 H17 H21 H23 H26">
+  <conditionalFormatting sqref="H3 H6 H8 H10 H12 H14 H17 H21 H23 H26">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1937,7 +1937,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H4 H9 H11 H13 H16 H19 H22 H25 H28 H30">
+  <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2086,7 +2086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2116,14 +2116,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD6DDF4-38A0-4727-93DA-A9D0081517AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
   <si>
     <t>Year</t>
   </si>
@@ -302,12 +303,15 @@
   </si>
   <si>
     <t>2024 Summer Olympics in Paris</t>
+  </si>
+  <si>
+    <t>18.061.940</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,9 +614,17 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -724,16 +736,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1001,14 +1013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1872,13 +1884,19 @@
       <c r="B31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="D31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="19"/>
+      <c r="G31" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="H31" s="8">
         <v>1</v>
       </c>
@@ -1894,15 +1912,21 @@
       <c r="B32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="D32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="8">
-        <v>0</v>
+      <c r="G32" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="I32" s="9" t="str">
         <f t="shared" ref="I32" si="6">IF(OR(AND(H32&gt;1,H32&lt;&gt;"-")),"Can exchange","")</f>
@@ -1916,12 +1940,12 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H6 H8 H10 H12 H14 H17 H21 H23 H26">
-    <cfRule type="containsText" dxfId="13" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H6 H8 H10 H12 H14 H17 H21 H23 H26">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="H6 H3 H8 H10 H12 H14 H17 H21 H23 H26">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1933,12 +1957,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
-    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="H7 H4 H9 H11 H13 H16 H19 H22 H25 H28 H30">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1950,11 +1974,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1966,12 +2007,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="H15">
     <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1983,13 +2024,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2000,12 +2041,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="H20">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2017,17 +2063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2039,7 +2075,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2051,12 +2092,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H31">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2068,25 +2109,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2109,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2202,12 +2226,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD6DDF4-38A0-4727-93DA-A9D0081517AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4285606-ABD4-471C-8F01-762AACAD9C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -29,9 +38,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
+    <author>Lord_Alexator</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,12 +73,42 @@
         </r>
       </text>
     </comment>
+    <comment ref="I8" authorId="1" shapeId="0" xr:uid="{BC586052-93C9-4617-A543-A4E09F318929}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Дубли не UNC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="1" shapeId="0" xr:uid="{E545AB7B-867B-4DCD-A148-4A803331A475}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Дубли не UNC</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="95">
   <si>
     <t>Year</t>
   </si>
@@ -203,12 +243,6 @@
 Cornucopia</t>
   </si>
   <si>
-    <t>Obv: Mint director Symbol - French horn</t>
-  </si>
-  <si>
-    <t>Obv: Mint director Symbol - Pentagon</t>
-  </si>
-  <si>
     <t>French Presidency of the Council of the European Union in the second half of 2008</t>
   </si>
   <si>
@@ -302,17 +336,71 @@
     <t>Charles de Gaulle</t>
   </si>
   <si>
-    <t>2024 Summer Olympics in Paris</t>
-  </si>
-  <si>
     <t>18.061.940</t>
+  </si>
+  <si>
+    <t>UNICEF</t>
+  </si>
+  <si>
+    <t>Medical Research</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - French horn</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - Pentagon</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - Square</t>
+  </si>
+  <si>
+    <t>Jacques Chirac</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>2023 Rugby World Cup</t>
+  </si>
+  <si>
+    <t>Subtype_5</t>
+  </si>
+  <si>
+    <t>Racing Marianne</t>
+  </si>
+  <si>
+    <t>Genius and the discus throw</t>
+  </si>
+  <si>
+    <t>Sower</t>
+  </si>
+  <si>
+    <t>2024 Summer Olympics series</t>
+  </si>
+  <si>
+    <t>7.520.000</t>
+  </si>
+  <si>
+    <t>510.000</t>
+  </si>
+  <si>
+    <t>9.020.000</t>
+  </si>
+  <si>
+    <t>260.000</t>
+  </si>
+  <si>
+    <t>3.520.000</t>
+  </si>
+  <si>
+    <t>15.120.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -376,6 +464,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -421,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -453,28 +548,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -500,15 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -523,13 +587,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +621,7 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -577,37 +650,40 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,7 +692,16 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -626,13 +711,52 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -743,9 +867,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1014,53 +1138,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
+    <col min="3" max="4" width="36.453125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="29"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1071,865 +1196,1107 @@
         <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="9" t="str">
-        <f t="shared" ref="I3" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="9" t="str">
+        <f t="shared" ref="J3" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="24">
+      <c r="I4" s="24">
         <v>1</v>
       </c>
-      <c r="I4" s="9" t="str">
-        <f t="shared" ref="I4:I6" si="1">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="9" t="str">
+        <f t="shared" ref="J4:J6" si="1">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2008</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="9" t="str">
+      <c r="I5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2009</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="9" t="str">
+      <c r="J6" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2010</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="str">
-        <f t="shared" ref="I7:I30" si="2">IF(OR(AND(H7&gt;1,H7&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" ref="J7:J30" si="2">IF(OR(AND(I7&gt;1,I7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2011</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="24">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="str">
+      <c r="I8" s="25">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2012</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="24">
+      <c r="I9" s="24">
         <v>1</v>
       </c>
-      <c r="I9" s="9" t="str">
+      <c r="J9" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2012</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="24">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="str">
+      <c r="I10" s="25">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2013</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="str">
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2013</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>0</v>
       </c>
-      <c r="I12" s="9" t="str">
+      <c r="J12" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2014</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9" t="str">
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>1</v>
       </c>
-      <c r="I14" s="9" t="str">
+      <c r="J14" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2014</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="9" t="str">
+        <v>79</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2015</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>0</v>
       </c>
-      <c r="I16" s="9" t="str">
+      <c r="J16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2015</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>1</v>
       </c>
-      <c r="I17" s="9" t="str">
+      <c r="J17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2015</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="9" t="str">
-        <f t="shared" ref="I18" si="3">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="9" t="str">
+        <f t="shared" ref="J18" si="3">IF(OR(AND(I18&gt;1,I18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2015</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>1</v>
       </c>
-      <c r="I19" s="9" t="str">
+      <c r="J19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2015</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="9" t="str">
+        <v>79</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2016</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="24">
+      <c r="I21" s="24">
         <v>1</v>
       </c>
-      <c r="I21" s="9" t="str">
+      <c r="J21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2016</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <v>1</v>
       </c>
-      <c r="I22" s="9" t="str">
+      <c r="J22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2017</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>1</v>
       </c>
-      <c r="I23" s="9" t="str">
+      <c r="J23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2017</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="9" t="str">
-        <f t="shared" ref="I24" si="4">IF(OR(AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="9" t="str">
+        <f t="shared" ref="J24" si="4">IF(OR(AND(I24&gt;1,I24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2017</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="8">
+      <c r="I25" s="8">
         <v>0</v>
       </c>
-      <c r="I25" s="9" t="str">
+      <c r="J25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="8">
+      <c r="I26" s="8">
         <v>1</v>
       </c>
-      <c r="I26" s="9" t="str">
+      <c r="J26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2018</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="9" t="str">
+        <v>79</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2018</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="8">
+      <c r="I28" s="8">
         <v>1</v>
       </c>
-      <c r="I28" s="9" t="str">
+      <c r="J28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2019</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="9" t="str">
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2019</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="8">
+      <c r="I30" s="8">
         <v>1</v>
       </c>
-      <c r="I30" s="9" t="str">
+      <c r="J30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>2020</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="8">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="8">
         <v>1</v>
       </c>
-      <c r="I31" s="9" t="str">
-        <f t="shared" ref="I31" si="5">IF(OR(AND(H31&gt;1,H31&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="9" t="str">
+        <f t="shared" ref="J31" si="5">IF(OR(AND(I31&gt;1,I31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2020</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>21</v>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="9" t="str">
-        <f t="shared" ref="I32" si="6">IF(OR(AND(H32&gt;1,H32&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9" t="str">
+        <f t="shared" ref="J32" si="6">IF(OR(AND(I32&gt;1,I32&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9" t="str">
+        <f t="shared" ref="J33:J34" si="7">IF(OR(AND(I33&gt;1,I33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9" t="str">
+        <f t="shared" ref="J35:J39" si="8">IF(OR(AND(I35&gt;1,I35&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="9" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -1937,14 +2304,48 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3 H6 H8 H10 H12 H14 H17 H21 H23 H26">
-    <cfRule type="containsText" dxfId="14" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H3 H8 H10 H12 H14 H17 H21 H23 H26">
+  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I21 I23 I26 I8">
+    <cfRule type="containsText" dxfId="20" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I21 I23 I26 I8">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I7 I9 I11 I13 I16 I19 I22 I25 I28 I30">
+    <cfRule type="containsText" dxfId="19" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I4 I9 I11 I13 I16 I19 I22 I25 I28 I30">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1956,12 +2357,51 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H7 H9 H11 H13 H16 H19 H22 H25 H28 H30">
-    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H4 H9 H11 H13 H16 H19 H22 H25 H28 H30">
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1973,13 +2413,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1990,12 +2425,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2007,12 +2493,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2024,12 +2510,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2041,17 +2544,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2063,8 +2561,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2075,12 +2578,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2092,30 +2595,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2137,17 +2623,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
@@ -2158,7 +2644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2169,7 +2655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2180,7 +2666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2191,7 +2677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2202,7 +2688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2213,7 +2699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>

--- a/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/France/#EURO#France#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4285606-ABD4-471C-8F01-762AACAD9C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396EC8C4-EE57-415F-9D01-4DB755A69F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="3860" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>15.120.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1144,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1166,20 +1166,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
       <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>4</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -1187,25 +1187,25 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -1214,21 +1214,21 @@
         <v>2007</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -1243,21 +1243,21 @@
         <v>2008</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="24">
         <v>1</v>
@@ -1272,26 +1272,26 @@
         <v>2008</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1303,21 +1303,21 @@
         <v>2009</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
@@ -1332,21 +1332,21 @@
         <v>2010</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="8">
         <v>1</v>
@@ -1361,21 +1361,21 @@
         <v>2011</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="25">
         <v>2</v>
@@ -1390,21 +1390,21 @@
         <v>2012</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="24">
         <v>1</v>
@@ -1419,21 +1419,21 @@
         <v>2012</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="25">
         <v>2</v>
@@ -1448,21 +1448,21 @@
         <v>2013</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
@@ -1477,21 +1477,21 @@
         <v>2013</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="8">
         <v>0</v>
@@ -1506,21 +1506,21 @@
         <v>2014</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
@@ -1535,21 +1535,21 @@
         <v>2014</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="8">
         <v>1</v>
@@ -1564,26 +1564,26 @@
         <v>2014</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1595,21 +1595,21 @@
         <v>2015</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
@@ -1624,21 +1624,21 @@
         <v>2015</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="8">
         <v>1</v>
@@ -1653,26 +1653,26 @@
         <v>2015</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="9" t="str">
         <f t="shared" ref="J18" si="3">IF(OR(AND(I18&gt;1,I18&lt;&gt;"-")),"Can exchange","")</f>
@@ -1684,21 +1684,21 @@
         <v>2015</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="8">
         <v>1</v>
@@ -1713,26 +1713,26 @@
         <v>2015</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1744,21 +1744,21 @@
         <v>2016</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="24">
         <v>1</v>
@@ -1773,21 +1773,21 @@
         <v>2016</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
@@ -1802,21 +1802,21 @@
         <v>2017</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -1831,26 +1831,26 @@
         <v>2017</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" s="9" t="str">
         <f t="shared" ref="J24" si="4">IF(OR(AND(I24&gt;1,I24&lt;&gt;"-")),"Can exchange","")</f>
@@ -1862,21 +1862,21 @@
         <v>2017</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="8">
         <v>0</v>
@@ -1891,21 +1891,21 @@
         <v>2018</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="8">
         <v>1</v>
@@ -1920,26 +1920,26 @@
         <v>2018</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="23" t="s">
-        <v>73</v>
-      </c>
       <c r="I27" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J27" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1951,21 +1951,21 @@
         <v>2018</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I28" s="8">
         <v>1</v>
@@ -1980,21 +1980,21 @@
         <v>2019</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I29" s="8">
         <v>0</v>
@@ -2009,21 +2009,21 @@
         <v>2019</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" s="8">
         <v>1</v>
@@ -2038,21 +2038,21 @@
         <v>2020</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I31" s="8">
         <v>1</v>
@@ -2067,21 +2067,21 @@
         <v>2020</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I32" s="8">
         <v>0</v>
@@ -2096,21 +2096,21 @@
         <v>2021</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I33" s="8">
         <v>0</v>
@@ -2125,23 +2125,23 @@
         <v>2021</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I34" s="8">
         <v>0</v>
@@ -2156,21 +2156,21 @@
         <v>2022</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I35" s="8">
         <v>0</v>
@@ -2185,21 +2185,21 @@
         <v>2022</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="8">
         <v>0</v>
@@ -2214,23 +2214,23 @@
         <v>2022</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I37" s="8">
         <v>0</v>
@@ -2245,23 +2245,23 @@
         <v>2023</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="8">
         <v>0</v>
@@ -2276,21 +2276,21 @@
         <v>2023</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I39" s="8">
         <v>0</v>
@@ -2311,7 +2311,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 I3 I10 I12 I14 I17 I21 I23 I26 I8">
+  <conditionalFormatting sqref="I3 I6 I10 I12 I14 I17 I21 I23 I26 I8">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2328,7 +2328,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I4 I9 I11 I13 I16 I19 I22 I25 I28 I30">
+  <conditionalFormatting sqref="I4 I7 I9 I11 I13 I16 I19 I22 I25 I28 I30">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2635,13 +2635,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2649,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2660,10 +2660,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2671,10 +2671,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2682,10 +2682,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2693,10 +2693,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2704,10 +2704,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
